--- a/Documents/Data/Health/Category_Health.xlsx
+++ b/Documents/Data/Health/Category_Health.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parakoda\Documents\Visual Studio 2015\Projects\BooksLibraryManagement\Category\Category_Health\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Book Infor\BooksLibraryManagement\Category\Category_Health\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7908"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+  <si>
+    <t>Image</t>
+  </si>
   <si>
     <t>Category</t>
   </si>
@@ -32,6 +35,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Author's Name</t>
   </si>
   <si>
@@ -53,6 +59,15 @@
     <t>Price (use to caculate fee in case books be lost)</t>
   </si>
   <si>
+    <t>The total number of each type of books</t>
+  </si>
+  <si>
+    <t>The number of books available for rent</t>
+  </si>
+  <si>
+    <t>Describe book condition</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
@@ -74,6 +89,9 @@
     <t>Denmark is often said to be the happiest country in the world. That's down to one thing: hygge. 'Hygge has been translated as everything from the art of creating intimacy to cosiness of the soul to taking pleasure from the presence of soothing things. My personal favourite is cocoa by candlelight...' You know hygge when you feel it. It is when you are cuddled up on a sofa with a loved one, or sharing comfort food with your closest friends. It is those crisp blue mornings when the light through your window is just right. Who better than Meik Wiking to be your guide to all things hygge? Meik is CEO of the Happiness Research Institute in Copenhagen and has spent years studying the magic of Danish life. In this beautiful, inspiring book he will help you be more hygge: from picking the right lighting and planning a dinner party through to creating an emergency hygge kit and even how to dress. Meik Wiking is the CEO of the Happiness Research Institute in Copenhagen. He is committed to finding out what makes people happy and has concluded that hygge is the magic ingredient that makes Danes the happiest nation in the world.</t>
   </si>
   <si>
+    <t>US$13.46</t>
+  </si>
+  <si>
     <t>Stt</t>
   </si>
   <si>
@@ -89,6 +107,9 @@
     <t>Dr Michael Mosley, author of the bestselling 5:2 Fast Diet, reveals a game-changing approach to one of the greatest silent epidemics of our time - raised blood sugar levels. The food we eat today, high in sugar and easily digestible carbohydrates, is not only making us fat, but is putting us at risk of type 2 diabetes, strokes, dementia, cancer and a lifetime on medication. More than a third of adults in the UK now have raised blood sugar levels and most don't know it. In this timely book, Dr Mosley explains why we pile on dangerous abdominal fat and shows us how to shed it, fast. He demolishes common myths, such as the claim that steady weight loss is always better than rapid weight loss and that those who lose weight rapidly will inevitably put it back on. This is a book not just for those at highest risk but for anyone who has struggled with their weight and wants to regain control of their health. "I feel amazing. I have been given another chance at life." Cassie, 28 - lost 20kg. Average weight loss: 14kg in 8 weeks. Includes a detailed 8-week programme with menu plans.</t>
   </si>
   <si>
+    <t>US$9.31</t>
+  </si>
+  <si>
     <t>When Breath Becomes Air</t>
   </si>
   <si>
@@ -104,6 +125,9 @@
     <t>This was selected as a New York Times Non-Fiction Book of the Year. It was short-listed for Waterstones Book of the Year; The New York Times Number one Bestseller; and the Sunday Times Bestseller. "Finishing this book and then forgetting about it is simply not an option...Unmissable." (New York Times). At the age of thirty-six, on the verge of completing a decade's training as a neurosurgeon, Paul Kalanithi was diagnosed with inoperable lung cancer. One day he was a doctor treating the dying, the next he was a patient struggling to live. When Breath Becomes Air chronicles Kalanithi's transformation from a medical student asking what makes a virtuous and meaningful life into a neurosurgeon working in the core of human identity - the brain - and finally into a patient and a new father. What makes life worth living in the face of death? What do you do when when life is catastrophically interrupted? What does it mean to have a child as your own life fades away? Paul Kalanithi died while working on this profoundly moving book, yet his words live on as a guide to us all. When Breath Becomes Air is a life-affirming reflection on facing our mortality and on the relationship between doctor and patient, from a gifted writer who became both.</t>
   </si>
   <si>
+    <t>US$23.61</t>
+  </si>
+  <si>
     <t>How Not to Die : Discover the Foods Scientifically Proven to Prevent and Reverse Disease</t>
   </si>
   <si>
@@ -116,12 +140,18 @@
     <t>The Sunday Times Bestseller. Why rely on drugs and surgery to cure you of life-threatening disease when the right decisions can prevent you from falling ill to begin with? How Not To Die gives effective, scientifically-proven nutritional advice to prevent our biggest killers - heart disease, breast cancer, prostate cancer, high blood pressure, diabetes - and reveals the astounding health benefits that simple dietary choices can provide. Based on the very latest scientific research, How Not To Die examines each of the most common diseases, chapter by chapter, to reveal what, how and why different foods affect us and how increasing our consumption of certain foods and avoiding others can dramatically reduce our risk of falling sick and even reverse the effects of disease. With emphasis on individual family health history and acknowledging that everyone needs something different, Dr Michael Greger offers practical dietary advice to help you make valuable decisions about your diet in order to live a longer, healthier lives.</t>
   </si>
   <si>
+    <t>US$18.53</t>
+  </si>
+  <si>
     <t>The Fast Diet : Lose Weight, Stay Healthy, Live Longer</t>
   </si>
   <si>
     <t>Is it possible to eat well, most of the time, and get slimmer and healthier as you do it? With The Fast Diet it is. Dr Mosley's Fast Diet has become the health phenomenon of our times. And for good reason. This radical approach to weight loss really is as simple as it sounds. You eat normally for five days a week, then for just two days you cut your calorie intake (600 for men, 500 for women). In this fully revised edition, Michael Mosley introduces the science behind the diet, with exciting new research into the wider health benefits of intermittent fasting - including studies on asthma, eczema and diabetes. Mimi Spencer, award-winning food and fashion writer, then explains how to incorporate fasting into your daily life, with a wealth of new detail on the psychology of successful dieting. She presents a range of enticing new recipes, along with an easy Fast Diet shopping list and a user-friendly calorie counter to help you sail through your Fast Days. Whether you're a committed faster or a new recruit to the Fast Diet, this revised edition is a must.</t>
   </si>
   <si>
+    <t>US$16.82</t>
+  </si>
+  <si>
     <t>Lean in 15 - the Shift Plan : 15 Minute Meals and Workouts to Keep You Lean and Healthy</t>
   </si>
   <si>
@@ -134,6 +164,9 @@
     <t>THE RECORD-BREAKING NO.1 BESTSELLER EAT MORE. EXERCISE LESS. LOSE FAT. In his first book, Joe Wicks, aka The Body Coach, reveals how to shift your body fat by eating more and exercising less. Lean in 15 features a hundred recipes for nutritious, quick-to-prepare meals and guides you through Joe's signature HIIT (High Intensity Interval Training) home workouts - revealing how to combine food and exercise to ignite intense fat-burning.</t>
   </si>
   <si>
+    <t>US$19.51</t>
+  </si>
+  <si>
     <t>Sitting Still Like a Frog : Mindfulness Exercises for Kids (and Their Parents)</t>
   </si>
   <si>
@@ -164,6 +197,9 @@
     <t>For most of human history, death was a common, ever-present possibility. It didn't matter whether you were five or fifty - every day was a roll of the dice. But now, as medical advances push the boundaries of survival further each year, we have become increasingly detached from the reality of being mortal. So here is a book about the modern experience of mortality - about what it's like to get old and die, how medicine has changed this and how it hasn't, where our ideas about death have gone wrong. With his trademark mix of perceptiveness and sensitivity, Atul Gawande outlines a story that crosses the globe, as he examines his experiences as a surgeon and those of his patients and family, and learns to accept the limits of what he can do. Never before has aging been such an important topic. The systems that we have put in place to manage our mortality are manifestly failing; but, as Gawande reveals, it doesn't have to be this way. The ultimate goal, after all, is not a good death, but a good life - all the way to the very end. Published in partnership with the Wellcome Collection, a free visitor destination that explores the connections between medicine, life and art.</t>
   </si>
   <si>
+    <t>US$9.95</t>
+  </si>
+  <si>
     <t>Peaceful Parent, Happy Kids : How to Stop Yelling and Start Connecting</t>
   </si>
   <si>
@@ -182,6 +218,9 @@
     <t>A groundbreaking guide to raising responsible, capable, happy kids Based on the latest research on brain development and extensive clinical experience with parents, Dr. Laura Markham s approach is as simple as it is effective. Her message: Fostering emotional connection with your child creates real and lasting change. When you have that vital connection, you don t need to threaten, nag, plead, bribe or even punish. This remarkable guide will help parents better understand their own emotions and get them in check so they can parent with healthy limits, empathy, and clear communication to raise a self-disciplined child. Step-by-step examples give solutions and kid-tested phrasing for parents of toddlers rightthrough the elementary years. If you re tired of power struggles, tantrums, and searching for the right consequence, look no further. You re about to discover the practical tools you need to transform your parenting in a positive, proven way."</t>
   </si>
   <si>
+    <t>US$13.60 </t>
+  </si>
+  <si>
     <t>Mindful Games : Sharing Mindfulness and Meditation with Children, Teens, and Families</t>
   </si>
   <si>
@@ -197,17 +236,32 @@
     <t>A playful approach for cultivating mindfulness in kids, with sixty simple games to develop attention and focus, and identify and regulate emotions--by the author ofThe Mindful Child. Playing games is a great way for kids to develop their focusing and attention skills and to become more mindful. Susan Kaiser Greenland has had a lot of success bringing mindfulness to the classroom, and in this book she shares her experience, showing how parents, caregivers, and teachers can cultivate these qualities at home or in a school setting. She includes fifty mindfulness games that develop what Greenland calls the "new A, B, C's" for learning and for a happy and successful life: Attention, Balance, and Compassion. In a playful way, the games introduce kids to breathing practices and techniques for developing focus, concentration, and sensory awareness, and identifying and self-regulating emotions, among others skills. They include "anchor" games that develop concentration; visualization games that encourage kindness and focus; analytical games that cultivate clear thinking; and awareness games that develop all of these qualities and give greater insight into ourselves, others, and relationships. Greenland contextualizes each game and offers guidance for the parents/caregivers throughout. Even though the games are written for kids, they can be just as fun and transformative for adults. Greenland encourages parents and caregivers to develop their own attention, balance, and compassion and explore the universal concepts that she presents. She points out that as caregivers, our own mindfulness has a powerful effect on everyone in our lives, especially our children. They notice when we're calmer, more composed, and more joyful, and learn by our example."</t>
   </si>
   <si>
-    <t>Michael Mosley , Mimi Spencer</t>
-  </si>
-  <si>
-    <t>13.60 </t>
+    <t>US$13.50</t>
+  </si>
+  <si>
+    <r>
+      <t>Michael Mosley</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> , Mimi Spencer</t>
+    </r>
+  </si>
+  <si>
+    <t>US$11.27 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,17 +270,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,29 +304,40 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0072"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,36 +359,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -408,6 +475,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -443,6 +527,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,433 +696,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="126.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" customWidth="1"/>
-    <col min="12" max="12" width="36" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="12" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="20.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22" style="3" customWidth="1"/>
+    <col min="11" max="11" width="66.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="42.88671875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="36" style="3" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="7">
+        <v>42705</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="93.6" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7">
+        <v>42370</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3">
+        <v>100</v>
+      </c>
+      <c r="N3" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3">
+        <v>100</v>
+      </c>
+      <c r="N4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="93.6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="7">
+        <v>42468</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3">
+        <v>100</v>
+      </c>
+      <c r="N5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="7">
+        <v>41991</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="3">
+        <v>100</v>
+      </c>
+      <c r="N6" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="93.6" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100</v>
+      </c>
+      <c r="N7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="7">
+        <v>41618</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="10" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="93.6" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10">
-        <v>42705</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6">
-        <v>13.46</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="D11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="10">
-        <v>42370</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="6">
-        <v>9.31</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="6">
-        <v>23.61</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="10">
-        <v>42468</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="6">
-        <v>18.53</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="10">
-        <v>41991</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="6">
-        <v>16.82</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="6">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="10">
-        <v>41618</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="6">
-        <v>11.27</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="6">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="I11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="7">
         <v>42697</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="K11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="3">
+        <v>100</v>
+      </c>
+      <c r="N11" s="3">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.bookdepository.com/author/Meik-Wiking"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://www.bookdepository.com/publishers/Penguin-Books-Ltd"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://www.bookdepository.com/author/Michael-Mosley"/>
-    <hyperlink ref="E3" r:id="rId4" display="https://www.bookdepository.com/publishers/Short-Books-Ltd"/>
-    <hyperlink ref="D4" r:id="rId5" display="https://www.bookdepository.com/author/Paul-Kalanithi"/>
-    <hyperlink ref="E4" r:id="rId6" display="https://www.bookdepository.com/publishers/Vintage-Publishing"/>
-    <hyperlink ref="E5" r:id="rId7" display="https://www.bookdepository.com/publishers/Pan-MacMillan"/>
-    <hyperlink ref="E6" r:id="rId8" display="https://www.bookdepository.com/publishers/Short-Books-Ltd"/>
-    <hyperlink ref="D7" r:id="rId9" display="https://www.bookdepository.com/author/Joe-Wicks"/>
-    <hyperlink ref="E7" r:id="rId10" display="https://www.bookdepository.com/publishers/Pan-MacMillan"/>
-    <hyperlink ref="D8" r:id="rId11" display="https://www.bookdepository.com/author/Eline-Snel"/>
-    <hyperlink ref="E8" r:id="rId12" display="https://www.bookdepository.com/publishers/Shambhala-Publications-Inc"/>
-    <hyperlink ref="D9" r:id="rId13" display="https://www.bookdepository.com/author/Atul-Gawande"/>
-    <hyperlink ref="E9" r:id="rId14" display="https://www.bookdepository.com/publishers/Profile-Books-Ltd"/>
-    <hyperlink ref="D10" r:id="rId15" display="https://www.bookdepository.com/author/Laura-Markham"/>
-    <hyperlink ref="E10" r:id="rId16" display="https://www.bookdepository.com/publishers/Penguin-Putnam-Inc"/>
-    <hyperlink ref="D11" r:id="rId17" display="https://www.bookdepository.com/author/Susan-Kaiser-Greenland"/>
-    <hyperlink ref="E11" r:id="rId18" display="https://www.bookdepository.com/publishers/Shambhala-Publications-Inc"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.bookdepository.com/author/Meik-Wiking"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://www.bookdepository.com/publishers/Penguin-Books-Ltd"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.bookdepository.com/author/Michael-Mosley"/>
+    <hyperlink ref="G3" r:id="rId4" display="https://www.bookdepository.com/publishers/Short-Books-Ltd"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://www.bookdepository.com/author/Paul-Kalanithi"/>
+    <hyperlink ref="G4" r:id="rId6" display="https://www.bookdepository.com/publishers/Vintage-Publishing"/>
+    <hyperlink ref="G5" r:id="rId7" display="https://www.bookdepository.com/publishers/Pan-MacMillan"/>
+    <hyperlink ref="G6" r:id="rId8" display="https://www.bookdepository.com/publishers/Short-Books-Ltd"/>
+    <hyperlink ref="F7" r:id="rId9" display="https://www.bookdepository.com/author/Joe-Wicks"/>
+    <hyperlink ref="G7" r:id="rId10" display="https://www.bookdepository.com/publishers/Pan-MacMillan"/>
+    <hyperlink ref="F8" r:id="rId11" display="https://www.bookdepository.com/author/Eline-Snel"/>
+    <hyperlink ref="G8" r:id="rId12" display="https://www.bookdepository.com/publishers/Shambhala-Publications-Inc"/>
+    <hyperlink ref="F9" r:id="rId13" display="https://www.bookdepository.com/author/Atul-Gawande"/>
+    <hyperlink ref="G9" r:id="rId14" display="https://www.bookdepository.com/publishers/Profile-Books-Ltd"/>
+    <hyperlink ref="F10" r:id="rId15" display="https://www.bookdepository.com/author/Laura-Markham"/>
+    <hyperlink ref="G10" r:id="rId16" display="https://www.bookdepository.com/publishers/Penguin-Putnam-Inc"/>
+    <hyperlink ref="F11" r:id="rId17" display="https://www.bookdepository.com/author/Susan-Kaiser-Greenland"/>
+    <hyperlink ref="G11" r:id="rId18" display="https://www.bookdepository.com/publishers/Shambhala-Publications-Inc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>

--- a/Documents/Data/Health/Category_Health.xlsx
+++ b/Documents/Data/Health/Category_Health.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Book Infor\BooksLibraryManagement\Category\Category_Health\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\github\LibraryManager\BooksLibraryManagement\Documents\Data\Health\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7908"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Author's Name</t>
   </si>
   <si>
@@ -256,12 +253,15 @@
   <si>
     <t>US$11.27 </t>
   </si>
+  <si>
+    <t>ISBN13</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +339,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -361,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -381,6 +387,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,33 +709,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="20.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="22" style="3" customWidth="1"/>
-    <col min="11" max="11" width="66.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="42.88671875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="66.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="36" style="3" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="23.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -735,71 +746,74 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="12">
+        <v>9780241283912</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="J2" s="7">
         <v>42705</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" s="3">
         <v>100</v>
       </c>
@@ -807,37 +821,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="93.6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="12">
+        <v>9781780722405</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="J3" s="7">
         <v>42370</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="M3" s="3">
         <v>100</v>
       </c>
@@ -845,37 +862,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12">
+        <v>9781847923677</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="M4" s="3">
         <v>100</v>
       </c>
@@ -883,37 +903,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="93.6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="93" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12">
+        <v>9781447282440</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="J5" s="7">
         <v>42468</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="M5" s="3">
         <v>100</v>
       </c>
@@ -921,37 +944,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9781780722375</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="J6" s="7">
         <v>41991</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="M6" s="3">
         <v>100</v>
       </c>
@@ -959,37 +985,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="93.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="12">
+        <v>9781509800667</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="M7" s="3">
         <v>100</v>
       </c>
@@ -997,36 +1026,39 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="12">
+        <v>9781611800586</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J8" s="7">
         <v>41618</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -1035,37 +1067,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="12">
+        <v>9781846685828</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
@@ -1073,37 +1108,40 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="70.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="12">
+        <v>9780399160288</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
@@ -1111,36 +1149,39 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="93.6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="93" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9781611803693</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="J11" s="7">
         <v>42697</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="3">
         <v>100</v>
